--- a/components/mockup-data/data/presentationMember.xlsx
+++ b/components/mockup-data/data/presentationMember.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Học kì VII\Web\Kahoot\BE\components\mockup-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3AF90-C0E8-4BD6-9ECE-942B2D482491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AAE3DE-8260-4C13-AD11-657EE5BACC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2976" yWindow="1728" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,6 +442,72 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
